--- a/Code/Results/Cases/Case_0_180/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_180/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9989792307411128</v>
+        <v>1.028139083075631</v>
       </c>
       <c r="D2">
-        <v>1.007022532762915</v>
+        <v>1.029433777072122</v>
       </c>
       <c r="E2">
-        <v>1.013825221414822</v>
+        <v>1.03741019972774</v>
       </c>
       <c r="F2">
-        <v>1.020693913532408</v>
+        <v>1.04664831816462</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043829280590549</v>
+        <v>1.032572425840893</v>
       </c>
       <c r="J2">
-        <v>1.021190515765832</v>
+        <v>1.033293061461415</v>
       </c>
       <c r="K2">
-        <v>1.018384891901807</v>
+        <v>1.032247700814112</v>
       </c>
       <c r="L2">
-        <v>1.025095251275991</v>
+        <v>1.040201163811946</v>
       </c>
       <c r="M2">
-        <v>1.031872285120558</v>
+        <v>1.049413165436673</v>
       </c>
       <c r="N2">
-        <v>1.010977958131616</v>
+        <v>1.015107105878073</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.002893726234989</v>
+        <v>1.028978084316564</v>
       </c>
       <c r="D3">
-        <v>1.010133318787517</v>
+        <v>1.030147519223694</v>
       </c>
       <c r="E3">
-        <v>1.017089327646322</v>
+        <v>1.038163285338898</v>
       </c>
       <c r="F3">
-        <v>1.024379465099047</v>
+        <v>1.047502073042091</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044534243937421</v>
+        <v>1.032662048692641</v>
       </c>
       <c r="J3">
-        <v>1.023305815002285</v>
+        <v>1.033773111755603</v>
       </c>
       <c r="K3">
-        <v>1.020638163190985</v>
+        <v>1.032769841641437</v>
       </c>
       <c r="L3">
-        <v>1.027508118832826</v>
+        <v>1.040764201503886</v>
       </c>
       <c r="M3">
-        <v>1.034709626822756</v>
+        <v>1.050078495992177</v>
       </c>
       <c r="N3">
-        <v>1.011690079940455</v>
+        <v>1.015267485934195</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005380518094393</v>
+        <v>1.029521606032618</v>
       </c>
       <c r="D4">
-        <v>1.012114903315876</v>
+        <v>1.030610230720443</v>
       </c>
       <c r="E4">
-        <v>1.019168718322188</v>
+        <v>1.038651530383783</v>
       </c>
       <c r="F4">
-        <v>1.026726601324805</v>
+        <v>1.048055547154961</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044971233603056</v>
+        <v>1.032718755058449</v>
       </c>
       <c r="J4">
-        <v>1.024647583935123</v>
+        <v>1.034083717707756</v>
       </c>
       <c r="K4">
-        <v>1.022069278393372</v>
+        <v>1.0331079024437</v>
       </c>
       <c r="L4">
-        <v>1.029041170152542</v>
+        <v>1.041128808075011</v>
       </c>
       <c r="M4">
-        <v>1.036512815646265</v>
+        <v>1.050509402095662</v>
       </c>
       <c r="N4">
-        <v>1.01214162544281</v>
+        <v>1.015371215424434</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.006415256081719</v>
+        <v>1.02975025215044</v>
       </c>
       <c r="D5">
-        <v>1.012940680881357</v>
+        <v>1.030804961687856</v>
       </c>
       <c r="E5">
-        <v>1.020035290945477</v>
+        <v>1.038857013742746</v>
       </c>
       <c r="F5">
-        <v>1.027704586457176</v>
+        <v>1.048288474078009</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045150418660732</v>
+        <v>1.032742285980159</v>
       </c>
       <c r="J5">
-        <v>1.025205367888782</v>
+        <v>1.034214290657588</v>
       </c>
       <c r="K5">
-        <v>1.022664644367362</v>
+        <v>1.033250069851291</v>
       </c>
       <c r="L5">
-        <v>1.029679081888391</v>
+        <v>1.041282155068073</v>
       </c>
       <c r="M5">
-        <v>1.03726324081862</v>
+        <v>1.050690647337268</v>
       </c>
       <c r="N5">
-        <v>1.012329294612324</v>
+        <v>1.015414811536827</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.006588374724352</v>
+        <v>1.029788651563202</v>
       </c>
       <c r="D6">
-        <v>1.013078911672575</v>
+        <v>1.030837669962144</v>
       </c>
       <c r="E6">
-        <v>1.020180352856834</v>
+        <v>1.038891528450577</v>
       </c>
       <c r="F6">
-        <v>1.027868288825437</v>
+        <v>1.048327597924475</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045180241043632</v>
+        <v>1.03274621881964</v>
       </c>
       <c r="J6">
-        <v>1.025298657647655</v>
+        <v>1.034236214052402</v>
       </c>
       <c r="K6">
-        <v>1.022764245658845</v>
+        <v>1.033273943078681</v>
       </c>
       <c r="L6">
-        <v>1.029785809041631</v>
+        <v>1.041307906552857</v>
       </c>
       <c r="M6">
-        <v>1.037388798642555</v>
+        <v>1.050721084574618</v>
       </c>
       <c r="N6">
-        <v>1.012360679885827</v>
+        <v>1.015422130811978</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.005394385955435</v>
+        <v>1.029524660627541</v>
       </c>
       <c r="D7">
-        <v>1.012125965726793</v>
+        <v>1.030612831913903</v>
       </c>
       <c r="E7">
-        <v>1.019180327089495</v>
+        <v>1.038654275180195</v>
       </c>
       <c r="F7">
-        <v>1.026739703250495</v>
+        <v>1.048058658570215</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044973645581546</v>
+        <v>1.032719070692532</v>
       </c>
       <c r="J7">
-        <v>1.024655061600135</v>
+        <v>1.034085462454319</v>
       </c>
       <c r="K7">
-        <v>1.022077258143612</v>
+        <v>1.033109801910054</v>
       </c>
       <c r="L7">
-        <v>1.029049719597941</v>
+        <v>1.041130856846038</v>
       </c>
       <c r="M7">
-        <v>1.036522872596419</v>
+        <v>1.050511823542859</v>
       </c>
       <c r="N7">
-        <v>1.012144141508549</v>
+        <v>1.015371798004657</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000311916791208</v>
+        <v>1.02842249564873</v>
       </c>
       <c r="D8">
-        <v>1.008080449894853</v>
+        <v>1.029674807786493</v>
       </c>
       <c r="E8">
-        <v>1.014935252204598</v>
+        <v>1.037664511053574</v>
       </c>
       <c r="F8">
-        <v>1.021947424394369</v>
+        <v>1.046936632573459</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044071534560501</v>
+        <v>1.032602980103009</v>
       </c>
       <c r="J8">
-        <v>1.021911074873451</v>
+        <v>1.033455299782875</v>
       </c>
       <c r="K8">
-        <v>1.019152067614768</v>
+        <v>1.032424118327215</v>
       </c>
       <c r="L8">
-        <v>1.025916646137897</v>
+        <v>1.040391385433597</v>
       </c>
       <c r="M8">
-        <v>1.032838089180807</v>
+        <v>1.049637934665668</v>
       </c>
       <c r="N8">
-        <v>1.011220569708537</v>
+        <v>1.015161316537826</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9909865465398291</v>
+        <v>1.026485252902074</v>
       </c>
       <c r="D9">
-        <v>1.000701980581247</v>
+        <v>1.028028654143275</v>
       </c>
       <c r="E9">
-        <v>1.007193782515369</v>
+        <v>1.035927766232374</v>
       </c>
       <c r="F9">
-        <v>1.013201897635701</v>
+        <v>1.044967514866062</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042332073721939</v>
+        <v>1.032388596429427</v>
       </c>
       <c r="J9">
-        <v>1.01686165789368</v>
+        <v>1.032344787797795</v>
       </c>
       <c r="K9">
-        <v>1.013783678898093</v>
+        <v>1.031217456645714</v>
       </c>
       <c r="L9">
-        <v>1.020171213958554</v>
+        <v>1.039090579663915</v>
       </c>
       <c r="M9">
-        <v>1.02608435393547</v>
+        <v>1.048101114301258</v>
       </c>
       <c r="N9">
-        <v>1.009519829312845</v>
+        <v>1.014790081642496</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9844977432211648</v>
+        <v>1.025197160181891</v>
       </c>
       <c r="D10">
-        <v>0.9956003821131367</v>
+        <v>1.026935876838196</v>
       </c>
       <c r="E10">
-        <v>1.001841656032704</v>
+        <v>1.034774987725748</v>
       </c>
       <c r="F10">
-        <v>1.007150922505693</v>
+        <v>1.043660291782816</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04106723367759</v>
+        <v>1.032239112582099</v>
       </c>
       <c r="J10">
-        <v>1.013340214037443</v>
+        <v>1.03160446802138</v>
       </c>
       <c r="K10">
-        <v>1.010049529995273</v>
+        <v>1.030414176154306</v>
       </c>
       <c r="L10">
-        <v>1.016177738235273</v>
+        <v>1.038224968841821</v>
       </c>
       <c r="M10">
-        <v>1.021392254107349</v>
+        <v>1.047078742461411</v>
       </c>
       <c r="N10">
-        <v>1.00833307010514</v>
+        <v>1.014542392076196</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9816179168747109</v>
+        <v>1.024640229724025</v>
       </c>
       <c r="D11">
-        <v>0.9933445284839563</v>
+        <v>1.026463820435856</v>
       </c>
       <c r="E11">
-        <v>0.9994750864656132</v>
+        <v>1.034277043769476</v>
       </c>
       <c r="F11">
-        <v>1.00447410745442</v>
+        <v>1.043095584750406</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040493520884765</v>
+        <v>1.03217283639085</v>
       </c>
       <c r="J11">
-        <v>1.011775923683377</v>
+        <v>1.03128392307303</v>
       </c>
       <c r="K11">
-        <v>1.008393058241519</v>
+        <v>1.030066639982275</v>
       </c>
       <c r="L11">
-        <v>1.014406908680732</v>
+        <v>1.037850546384501</v>
       </c>
       <c r="M11">
-        <v>1.019312139037697</v>
+        <v>1.046636581581293</v>
       </c>
       <c r="N11">
-        <v>1.007805763386304</v>
+        <v>1.014435098470541</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9805371740505944</v>
+        <v>1.024433486155525</v>
       </c>
       <c r="D12">
-        <v>0.9924992525417327</v>
+        <v>1.026288648338371</v>
       </c>
       <c r="E12">
-        <v>0.9985883306845753</v>
+        <v>1.034092269943074</v>
       </c>
       <c r="F12">
-        <v>1.003470906465223</v>
+        <v>1.042886029155947</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040276410055116</v>
+        <v>1.03214798643459</v>
       </c>
       <c r="J12">
-        <v>1.011188703028218</v>
+        <v>1.031164862504892</v>
       </c>
       <c r="K12">
-        <v>1.007771579852978</v>
+        <v>1.029937594522036</v>
       </c>
       <c r="L12">
-        <v>1.013742626116331</v>
+        <v>1.037711529730735</v>
       </c>
       <c r="M12">
-        <v>1.018531910131655</v>
+        <v>1.046472425138889</v>
       </c>
       <c r="N12">
-        <v>1.007607800918391</v>
+        <v>1.014395238967527</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9807695054960024</v>
+        <v>1.02447782766023</v>
       </c>
       <c r="D13">
-        <v>0.9926809050418219</v>
+        <v>1.026326215594429</v>
       </c>
       <c r="E13">
-        <v>0.9987788971345148</v>
+        <v>1.034131896165715</v>
       </c>
       <c r="F13">
-        <v>1.003686506368353</v>
+        <v>1.042930970380273</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040323164087456</v>
+        <v>1.032153327323925</v>
       </c>
       <c r="J13">
-        <v>1.011314947257675</v>
+        <v>1.031190401194073</v>
       </c>
       <c r="K13">
-        <v>1.007905173364992</v>
+        <v>1.02996527315418</v>
       </c>
       <c r="L13">
-        <v>1.01388541631411</v>
+        <v>1.037741346512016</v>
       </c>
       <c r="M13">
-        <v>1.018699620121883</v>
+        <v>1.046507633523708</v>
       </c>
       <c r="N13">
-        <v>1.007650360769344</v>
+        <v>1.014403789224514</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9815288107533533</v>
+        <v>1.024623137672394</v>
       </c>
       <c r="D14">
-        <v>0.9932748095686867</v>
+        <v>1.026449337163104</v>
       </c>
       <c r="E14">
-        <v>0.999401946170292</v>
+        <v>1.034261766527769</v>
       </c>
       <c r="F14">
-        <v>1.004391366718583</v>
+        <v>1.043078258692316</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040475656791444</v>
+        <v>1.032170787015269</v>
       </c>
       <c r="J14">
-        <v>1.011727511227602</v>
+        <v>1.03127408139802</v>
       </c>
       <c r="K14">
-        <v>1.008341814420132</v>
+        <v>1.030055972119014</v>
       </c>
       <c r="L14">
-        <v>1.014352133410522</v>
+        <v>1.037839053981237</v>
       </c>
       <c r="M14">
-        <v>1.01924780158433</v>
+        <v>1.046623010679901</v>
       </c>
       <c r="N14">
-        <v>1.007789443005183</v>
+        <v>1.014431803788732</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9819951641476222</v>
+        <v>1.024712684607245</v>
       </c>
       <c r="D15">
-        <v>0.9936397498555367</v>
+        <v>1.026525219096929</v>
       </c>
       <c r="E15">
-        <v>0.9997847957190519</v>
+        <v>1.034341808480232</v>
       </c>
       <c r="F15">
-        <v>1.004824461275602</v>
+        <v>1.043169034676298</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040569078408245</v>
+        <v>1.032181513780757</v>
       </c>
       <c r="J15">
-        <v>1.01198087997795</v>
+        <v>1.031325640116364</v>
       </c>
       <c r="K15">
-        <v>1.008610015372597</v>
+        <v>1.030111860743858</v>
       </c>
       <c r="L15">
-        <v>1.014638821435917</v>
+        <v>1.037899262842252</v>
       </c>
       <c r="M15">
-        <v>1.019584540100563</v>
+        <v>1.046694109244444</v>
       </c>
       <c r="N15">
-        <v>1.007874855803765</v>
+        <v>1.014449063721686</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9846873473230788</v>
+        <v>1.025234139287776</v>
       </c>
       <c r="D16">
-        <v>0.9957490824979065</v>
+        <v>1.026967229496964</v>
       </c>
       <c r="E16">
-        <v>1.001997655557757</v>
+        <v>1.034808060426191</v>
       </c>
       <c r="F16">
-        <v>1.00732734613254</v>
+        <v>1.043697797707823</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041104752492988</v>
+        <v>1.03224347854051</v>
       </c>
       <c r="J16">
-        <v>1.013443178669926</v>
+        <v>1.031625742035423</v>
       </c>
       <c r="K16">
-        <v>1.010158610268722</v>
+        <v>1.030437247209702</v>
       </c>
       <c r="L16">
-        <v>1.016294363153637</v>
+        <v>1.038249826430964</v>
       </c>
       <c r="M16">
-        <v>1.021529258656482</v>
+        <v>1.047108098598152</v>
       </c>
       <c r="N16">
-        <v>1.008367776055426</v>
+        <v>1.014549511948007</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9863569554302151</v>
+        <v>1.025561455338156</v>
       </c>
       <c r="D17">
-        <v>0.9970594563095078</v>
+        <v>1.027244793041629</v>
       </c>
       <c r="E17">
-        <v>1.003372357514569</v>
+        <v>1.035100855072164</v>
       </c>
       <c r="F17">
-        <v>1.008881887593903</v>
+        <v>1.044029834093431</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041433730820155</v>
+        <v>1.0322819332228</v>
       </c>
       <c r="J17">
-        <v>1.014349703166013</v>
+        <v>1.031813993908454</v>
       </c>
       <c r="K17">
-        <v>1.011119241101278</v>
+        <v>1.030641432090463</v>
       </c>
       <c r="L17">
-        <v>1.017321514336526</v>
+        <v>1.038469831924735</v>
       </c>
       <c r="M17">
-        <v>1.022735956959388</v>
+        <v>1.047367927074288</v>
       </c>
       <c r="N17">
-        <v>1.00867332122042</v>
+        <v>1.014612509462401</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9873240789522023</v>
+        <v>1.025752452469449</v>
       </c>
       <c r="D18">
-        <v>0.9978192792347289</v>
+        <v>1.027406799424464</v>
       </c>
       <c r="E18">
-        <v>1.004169487595282</v>
+        <v>1.035271754504454</v>
       </c>
       <c r="F18">
-        <v>1.009783182046744</v>
+        <v>1.044223633409862</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041623113832661</v>
+        <v>1.03230421371799</v>
       </c>
       <c r="J18">
-        <v>1.014874671188786</v>
+        <v>1.031923799726972</v>
       </c>
       <c r="K18">
-        <v>1.011675761229472</v>
+        <v>1.030760557520669</v>
       </c>
       <c r="L18">
-        <v>1.017916636288983</v>
+        <v>1.038598195199411</v>
       </c>
       <c r="M18">
-        <v>1.023435155081948</v>
+        <v>1.047519531926498</v>
       </c>
       <c r="N18">
-        <v>1.008850250127475</v>
+        <v>1.01464925072411</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9876527164571196</v>
+        <v>1.025817590941017</v>
       </c>
       <c r="D19">
-        <v>0.9980776059369479</v>
+        <v>1.027462057720083</v>
       </c>
       <c r="E19">
-        <v>1.004440499277647</v>
+        <v>1.035330046626607</v>
       </c>
       <c r="F19">
-        <v>1.010089588485027</v>
+        <v>1.044289735636044</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041687266617687</v>
+        <v>1.032311785418637</v>
       </c>
       <c r="J19">
-        <v>1.015053035581439</v>
+        <v>1.03196124091884</v>
       </c>
       <c r="K19">
-        <v>1.011864883020577</v>
+        <v>1.030801180892806</v>
       </c>
       <c r="L19">
-        <v>1.018118887128917</v>
+        <v>1.038641970123064</v>
       </c>
       <c r="M19">
-        <v>1.023672784198917</v>
+        <v>1.047571233911451</v>
       </c>
       <c r="N19">
-        <v>1.008910361766605</v>
+        <v>1.014661777830758</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9861785220566209</v>
+        <v>1.025526329217769</v>
       </c>
       <c r="D20">
-        <v>0.9969193328667716</v>
+        <v>1.027215001888286</v>
       </c>
       <c r="E20">
-        <v>1.003225354578189</v>
+        <v>1.035069428834039</v>
       </c>
       <c r="F20">
-        <v>1.008715665806967</v>
+        <v>1.043994196465806</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041398694297908</v>
+        <v>1.032277822855081</v>
       </c>
       <c r="J20">
-        <v>1.014252835634175</v>
+        <v>1.031793796080066</v>
       </c>
       <c r="K20">
-        <v>1.011016569257</v>
+        <v>1.030619522094724</v>
       </c>
       <c r="L20">
-        <v>1.017211726119397</v>
+        <v>1.038446223497403</v>
       </c>
       <c r="M20">
-        <v>1.022606972656108</v>
+        <v>1.047340044619256</v>
       </c>
       <c r="N20">
-        <v>1.008640673148099</v>
+        <v>1.014605750848208</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9813055234889007</v>
+        <v>1.024580344025936</v>
       </c>
       <c r="D21">
-        <v>0.9931001250526066</v>
+        <v>1.026413076203371</v>
       </c>
       <c r="E21">
-        <v>0.9992186892816269</v>
+        <v>1.034223517828155</v>
       </c>
       <c r="F21">
-        <v>1.004184052221361</v>
+        <v>1.043034880370023</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040430862956422</v>
+        <v>1.032165651971249</v>
       </c>
       <c r="J21">
-        <v>1.011606193855082</v>
+        <v>1.031249439539802</v>
       </c>
       <c r="K21">
-        <v>1.008213407474179</v>
+        <v>1.030029262282122</v>
       </c>
       <c r="L21">
-        <v>1.014214878968113</v>
+        <v>1.037810279884104</v>
       </c>
       <c r="M21">
-        <v>1.019086587666872</v>
+        <v>1.04658903271119</v>
       </c>
       <c r="N21">
-        <v>1.007748545307991</v>
+        <v>1.014423554356234</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9781774852665476</v>
+        <v>1.023986290795356</v>
       </c>
       <c r="D22">
-        <v>0.9906561345672659</v>
+        <v>1.025909862068527</v>
       </c>
       <c r="E22">
-        <v>0.9966547726160176</v>
+        <v>1.033692729747902</v>
       </c>
       <c r="F22">
-        <v>1.001283069424154</v>
+        <v>1.042432888488517</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039799105089929</v>
+        <v>1.032093783563331</v>
       </c>
       <c r="J22">
-        <v>1.009906296613272</v>
+        <v>1.030907205346657</v>
       </c>
       <c r="K22">
-        <v>1.006414995969829</v>
+        <v>1.029658403279318</v>
       </c>
       <c r="L22">
-        <v>1.012292791678978</v>
+        <v>1.037410787781024</v>
       </c>
       <c r="M22">
-        <v>1.016829151238456</v>
+        <v>1.046117315821333</v>
       </c>
       <c r="N22">
-        <v>1.007175452284731</v>
+        <v>1.014308966407957</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9798419806475025</v>
+        <v>1.024301140351166</v>
       </c>
       <c r="D23">
-        <v>0.9919558981565613</v>
+        <v>1.026176531084787</v>
       </c>
       <c r="E23">
-        <v>0.9980183136698525</v>
+        <v>1.033974008509533</v>
       </c>
       <c r="F23">
-        <v>1.002825980538041</v>
+        <v>1.042751904358082</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040136249362456</v>
+        <v>1.032132009367654</v>
       </c>
       <c r="J23">
-        <v>1.010810926802037</v>
+        <v>1.031088627412664</v>
       </c>
       <c r="K23">
-        <v>1.007371862212184</v>
+        <v>1.029854977454598</v>
       </c>
       <c r="L23">
-        <v>1.013315406263515</v>
+        <v>1.037622532338418</v>
       </c>
       <c r="M23">
-        <v>1.018030142514369</v>
+        <v>1.046367336350167</v>
       </c>
       <c r="N23">
-        <v>1.007480441647113</v>
+        <v>1.014369714686849</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9862591691804857</v>
+        <v>1.025542200955018</v>
       </c>
       <c r="D24">
-        <v>0.9969826624904407</v>
+        <v>1.027228462893866</v>
       </c>
       <c r="E24">
-        <v>1.003291793409982</v>
+        <v>1.035083628636227</v>
       </c>
       <c r="F24">
-        <v>1.008790791070922</v>
+        <v>1.044010299180144</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041414533526714</v>
+        <v>1.032279680615242</v>
       </c>
       <c r="J24">
-        <v>1.014296617604512</v>
+        <v>1.031802922604265</v>
       </c>
       <c r="K24">
-        <v>1.011062973968198</v>
+        <v>1.030629422192842</v>
       </c>
       <c r="L24">
-        <v>1.017261347025059</v>
+        <v>1.038456891012919</v>
       </c>
       <c r="M24">
-        <v>1.022665269454188</v>
+        <v>1.047352643342212</v>
       </c>
       <c r="N24">
-        <v>1.008655429388792</v>
+        <v>1.01460880478784</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9934434962376616</v>
+        <v>1.026985484170102</v>
       </c>
       <c r="D25">
-        <v>1.002640554920401</v>
+        <v>1.028453411296939</v>
       </c>
       <c r="E25">
-        <v>1.009227635827479</v>
+        <v>1.036375874276728</v>
       </c>
       <c r="F25">
-        <v>1.015500311810439</v>
+        <v>1.045475614438812</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042799964815072</v>
+        <v>1.032445179107892</v>
       </c>
       <c r="J25">
-        <v>1.018193545652803</v>
+        <v>1.032631883719522</v>
       </c>
       <c r="K25">
-        <v>1.015198017506521</v>
+        <v>1.031529209236345</v>
       </c>
       <c r="L25">
-        <v>1.021684373788611</v>
+        <v>1.039426594850307</v>
       </c>
       <c r="M25">
-        <v>1.027862677957229</v>
+        <v>1.048498043291606</v>
       </c>
       <c r="N25">
-        <v>1.009968560741322</v>
+        <v>1.014886092050284</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_180/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_180/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028139083075631</v>
+        <v>0.9989792307411124</v>
       </c>
       <c r="D2">
-        <v>1.029433777072122</v>
+        <v>1.007022532762914</v>
       </c>
       <c r="E2">
-        <v>1.03741019972774</v>
+        <v>1.013825221414821</v>
       </c>
       <c r="F2">
-        <v>1.04664831816462</v>
+        <v>1.020693913532408</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032572425840893</v>
+        <v>1.043829280590549</v>
       </c>
       <c r="J2">
-        <v>1.033293061461415</v>
+        <v>1.021190515765832</v>
       </c>
       <c r="K2">
-        <v>1.032247700814112</v>
+        <v>1.018384891901806</v>
       </c>
       <c r="L2">
-        <v>1.040201163811946</v>
+        <v>1.025095251275991</v>
       </c>
       <c r="M2">
-        <v>1.049413165436673</v>
+        <v>1.031872285120557</v>
       </c>
       <c r="N2">
-        <v>1.015107105878073</v>
+        <v>1.010977958131616</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028978084316564</v>
+        <v>1.002893726234989</v>
       </c>
       <c r="D3">
-        <v>1.030147519223694</v>
+        <v>1.010133318787517</v>
       </c>
       <c r="E3">
-        <v>1.038163285338898</v>
+        <v>1.017089327646322</v>
       </c>
       <c r="F3">
-        <v>1.047502073042091</v>
+        <v>1.024379465099047</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032662048692641</v>
+        <v>1.044534243937421</v>
       </c>
       <c r="J3">
-        <v>1.033773111755603</v>
+        <v>1.023305815002285</v>
       </c>
       <c r="K3">
-        <v>1.032769841641437</v>
+        <v>1.020638163190984</v>
       </c>
       <c r="L3">
-        <v>1.040764201503886</v>
+        <v>1.027508118832826</v>
       </c>
       <c r="M3">
-        <v>1.050078495992177</v>
+        <v>1.034709626822756</v>
       </c>
       <c r="N3">
-        <v>1.015267485934195</v>
+        <v>1.011690079940455</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029521606032618</v>
+        <v>1.005380518094394</v>
       </c>
       <c r="D4">
-        <v>1.030610230720443</v>
+        <v>1.012114903315877</v>
       </c>
       <c r="E4">
-        <v>1.038651530383783</v>
+        <v>1.019168718322189</v>
       </c>
       <c r="F4">
-        <v>1.048055547154961</v>
+        <v>1.026726601324806</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032718755058449</v>
+        <v>1.044971233603056</v>
       </c>
       <c r="J4">
-        <v>1.034083717707756</v>
+        <v>1.024647583935124</v>
       </c>
       <c r="K4">
-        <v>1.0331079024437</v>
+        <v>1.022069278393373</v>
       </c>
       <c r="L4">
-        <v>1.041128808075011</v>
+        <v>1.029041170152542</v>
       </c>
       <c r="M4">
-        <v>1.050509402095662</v>
+        <v>1.036512815646266</v>
       </c>
       <c r="N4">
-        <v>1.015371215424434</v>
+        <v>1.01214162544281</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02975025215044</v>
+        <v>1.00641525608172</v>
       </c>
       <c r="D5">
-        <v>1.030804961687856</v>
+        <v>1.012940680881358</v>
       </c>
       <c r="E5">
-        <v>1.038857013742746</v>
+        <v>1.020035290945478</v>
       </c>
       <c r="F5">
-        <v>1.048288474078009</v>
+        <v>1.027704586457176</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032742285980159</v>
+        <v>1.045150418660732</v>
       </c>
       <c r="J5">
-        <v>1.034214290657588</v>
+        <v>1.025205367888783</v>
       </c>
       <c r="K5">
-        <v>1.033250069851291</v>
+        <v>1.022664644367363</v>
       </c>
       <c r="L5">
-        <v>1.041282155068073</v>
+        <v>1.029679081888391</v>
       </c>
       <c r="M5">
-        <v>1.050690647337268</v>
+        <v>1.03726324081862</v>
       </c>
       <c r="N5">
-        <v>1.015414811536827</v>
+        <v>1.012329294612324</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029788651563202</v>
+        <v>1.006588374724352</v>
       </c>
       <c r="D6">
-        <v>1.030837669962144</v>
+        <v>1.013078911672575</v>
       </c>
       <c r="E6">
-        <v>1.038891528450577</v>
+        <v>1.020180352856834</v>
       </c>
       <c r="F6">
-        <v>1.048327597924475</v>
+        <v>1.027868288825436</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03274621881964</v>
+        <v>1.045180241043632</v>
       </c>
       <c r="J6">
-        <v>1.034236214052402</v>
+        <v>1.025298657647655</v>
       </c>
       <c r="K6">
-        <v>1.033273943078681</v>
+        <v>1.022764245658845</v>
       </c>
       <c r="L6">
-        <v>1.041307906552857</v>
+        <v>1.029785809041631</v>
       </c>
       <c r="M6">
-        <v>1.050721084574618</v>
+        <v>1.037388798642555</v>
       </c>
       <c r="N6">
-        <v>1.015422130811978</v>
+        <v>1.012360679885827</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029524660627541</v>
+        <v>1.005394385955435</v>
       </c>
       <c r="D7">
-        <v>1.030612831913903</v>
+        <v>1.012125965726793</v>
       </c>
       <c r="E7">
-        <v>1.038654275180195</v>
+        <v>1.019180327089495</v>
       </c>
       <c r="F7">
-        <v>1.048058658570215</v>
+        <v>1.026739703250495</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032719070692532</v>
+        <v>1.044973645581546</v>
       </c>
       <c r="J7">
-        <v>1.034085462454319</v>
+        <v>1.024655061600135</v>
       </c>
       <c r="K7">
-        <v>1.033109801910054</v>
+        <v>1.022077258143612</v>
       </c>
       <c r="L7">
-        <v>1.041130856846038</v>
+        <v>1.029049719597941</v>
       </c>
       <c r="M7">
-        <v>1.050511823542859</v>
+        <v>1.036522872596419</v>
       </c>
       <c r="N7">
-        <v>1.015371798004657</v>
+        <v>1.012144141508549</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02842249564873</v>
+        <v>1.000311916791208</v>
       </c>
       <c r="D8">
-        <v>1.029674807786493</v>
+        <v>1.008080449894853</v>
       </c>
       <c r="E8">
-        <v>1.037664511053574</v>
+        <v>1.014935252204599</v>
       </c>
       <c r="F8">
-        <v>1.046936632573459</v>
+        <v>1.021947424394369</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032602980103009</v>
+        <v>1.044071534560501</v>
       </c>
       <c r="J8">
-        <v>1.033455299782875</v>
+        <v>1.021911074873452</v>
       </c>
       <c r="K8">
-        <v>1.032424118327215</v>
+        <v>1.019152067614769</v>
       </c>
       <c r="L8">
-        <v>1.040391385433597</v>
+        <v>1.025916646137897</v>
       </c>
       <c r="M8">
-        <v>1.049637934665668</v>
+        <v>1.032838089180808</v>
       </c>
       <c r="N8">
-        <v>1.015161316537826</v>
+        <v>1.011220569708537</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026485252902074</v>
+        <v>0.9909865465398285</v>
       </c>
       <c r="D9">
-        <v>1.028028654143275</v>
+        <v>1.000701980581247</v>
       </c>
       <c r="E9">
-        <v>1.035927766232374</v>
+        <v>1.007193782515368</v>
       </c>
       <c r="F9">
-        <v>1.044967514866062</v>
+        <v>1.0132018976357</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032388596429427</v>
+        <v>1.042332073721939</v>
       </c>
       <c r="J9">
-        <v>1.032344787797795</v>
+        <v>1.01686165789368</v>
       </c>
       <c r="K9">
-        <v>1.031217456645714</v>
+        <v>1.013783678898093</v>
       </c>
       <c r="L9">
-        <v>1.039090579663915</v>
+        <v>1.020171213958553</v>
       </c>
       <c r="M9">
-        <v>1.048101114301258</v>
+        <v>1.02608435393547</v>
       </c>
       <c r="N9">
-        <v>1.014790081642496</v>
+        <v>1.009519829312844</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025197160181891</v>
+        <v>0.9844977432211646</v>
       </c>
       <c r="D10">
-        <v>1.026935876838196</v>
+        <v>0.9956003821131363</v>
       </c>
       <c r="E10">
-        <v>1.034774987725748</v>
+        <v>1.001841656032703</v>
       </c>
       <c r="F10">
-        <v>1.043660291782816</v>
+        <v>1.007150922505693</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032239112582099</v>
+        <v>1.04106723367759</v>
       </c>
       <c r="J10">
-        <v>1.03160446802138</v>
+        <v>1.013340214037442</v>
       </c>
       <c r="K10">
-        <v>1.030414176154306</v>
+        <v>1.010049529995273</v>
       </c>
       <c r="L10">
-        <v>1.038224968841821</v>
+        <v>1.016177738235272</v>
       </c>
       <c r="M10">
-        <v>1.047078742461411</v>
+        <v>1.021392254107349</v>
       </c>
       <c r="N10">
-        <v>1.014542392076196</v>
+        <v>1.00833307010514</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024640229724025</v>
+        <v>0.9816179168747116</v>
       </c>
       <c r="D11">
-        <v>1.026463820435856</v>
+        <v>0.9933445284839569</v>
       </c>
       <c r="E11">
-        <v>1.034277043769476</v>
+        <v>0.999475086465614</v>
       </c>
       <c r="F11">
-        <v>1.043095584750406</v>
+        <v>1.004474107454421</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03217283639085</v>
+        <v>1.040493520884765</v>
       </c>
       <c r="J11">
-        <v>1.03128392307303</v>
+        <v>1.011775923683377</v>
       </c>
       <c r="K11">
-        <v>1.030066639982275</v>
+        <v>1.00839305824152</v>
       </c>
       <c r="L11">
-        <v>1.037850546384501</v>
+        <v>1.014406908680733</v>
       </c>
       <c r="M11">
-        <v>1.046636581581293</v>
+        <v>1.019312139037698</v>
       </c>
       <c r="N11">
-        <v>1.014435098470541</v>
+        <v>1.007805763386304</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024433486155525</v>
+        <v>0.9805371740505945</v>
       </c>
       <c r="D12">
-        <v>1.026288648338371</v>
+        <v>0.9924992525417325</v>
       </c>
       <c r="E12">
-        <v>1.034092269943074</v>
+        <v>0.9985883306845754</v>
       </c>
       <c r="F12">
-        <v>1.042886029155947</v>
+        <v>1.003470906465223</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03214798643459</v>
+        <v>1.040276410055116</v>
       </c>
       <c r="J12">
-        <v>1.031164862504892</v>
+        <v>1.011188703028218</v>
       </c>
       <c r="K12">
-        <v>1.029937594522036</v>
+        <v>1.007771579852978</v>
       </c>
       <c r="L12">
-        <v>1.037711529730735</v>
+        <v>1.013742626116331</v>
       </c>
       <c r="M12">
-        <v>1.046472425138889</v>
+        <v>1.018531910131656</v>
       </c>
       <c r="N12">
-        <v>1.014395238967527</v>
+        <v>1.007607800918391</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02447782766023</v>
+        <v>0.9807695054960022</v>
       </c>
       <c r="D13">
-        <v>1.026326215594429</v>
+        <v>0.9926809050418217</v>
       </c>
       <c r="E13">
-        <v>1.034131896165715</v>
+        <v>0.9987788971345146</v>
       </c>
       <c r="F13">
-        <v>1.042930970380273</v>
+        <v>1.003686506368353</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032153327323925</v>
+        <v>1.040323164087456</v>
       </c>
       <c r="J13">
-        <v>1.031190401194073</v>
+        <v>1.011314947257675</v>
       </c>
       <c r="K13">
-        <v>1.02996527315418</v>
+        <v>1.007905173364992</v>
       </c>
       <c r="L13">
-        <v>1.037741346512016</v>
+        <v>1.01388541631411</v>
       </c>
       <c r="M13">
-        <v>1.046507633523708</v>
+        <v>1.018699620121883</v>
       </c>
       <c r="N13">
-        <v>1.014403789224514</v>
+        <v>1.007650360769344</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024623137672394</v>
+        <v>0.9815288107533535</v>
       </c>
       <c r="D14">
-        <v>1.026449337163104</v>
+        <v>0.9932748095686869</v>
       </c>
       <c r="E14">
-        <v>1.034261766527769</v>
+        <v>0.9994019461702923</v>
       </c>
       <c r="F14">
-        <v>1.043078258692316</v>
+        <v>1.004391366718583</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032170787015269</v>
+        <v>1.040475656791444</v>
       </c>
       <c r="J14">
-        <v>1.03127408139802</v>
+        <v>1.011727511227602</v>
       </c>
       <c r="K14">
-        <v>1.030055972119014</v>
+        <v>1.008341814420132</v>
       </c>
       <c r="L14">
-        <v>1.037839053981237</v>
+        <v>1.014352133410522</v>
       </c>
       <c r="M14">
-        <v>1.046623010679901</v>
+        <v>1.01924780158433</v>
       </c>
       <c r="N14">
-        <v>1.014431803788732</v>
+        <v>1.007789443005183</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024712684607245</v>
+        <v>0.9819951641476229</v>
       </c>
       <c r="D15">
-        <v>1.026525219096929</v>
+        <v>0.9936397498555375</v>
       </c>
       <c r="E15">
-        <v>1.034341808480232</v>
+        <v>0.9997847957190525</v>
       </c>
       <c r="F15">
-        <v>1.043169034676298</v>
+        <v>1.004824461275603</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032181513780757</v>
+        <v>1.040569078408245</v>
       </c>
       <c r="J15">
-        <v>1.031325640116364</v>
+        <v>1.01198087997795</v>
       </c>
       <c r="K15">
-        <v>1.030111860743858</v>
+        <v>1.008610015372598</v>
       </c>
       <c r="L15">
-        <v>1.037899262842252</v>
+        <v>1.014638821435917</v>
       </c>
       <c r="M15">
-        <v>1.046694109244444</v>
+        <v>1.019584540100564</v>
       </c>
       <c r="N15">
-        <v>1.014449063721686</v>
+        <v>1.007874855803766</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025234139287776</v>
+        <v>0.9846873473230794</v>
       </c>
       <c r="D16">
-        <v>1.026967229496964</v>
+        <v>0.9957490824979069</v>
       </c>
       <c r="E16">
-        <v>1.034808060426191</v>
+        <v>1.001997655557758</v>
       </c>
       <c r="F16">
-        <v>1.043697797707823</v>
+        <v>1.00732734613254</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03224347854051</v>
+        <v>1.041104752492989</v>
       </c>
       <c r="J16">
-        <v>1.031625742035423</v>
+        <v>1.013443178669927</v>
       </c>
       <c r="K16">
-        <v>1.030437247209702</v>
+        <v>1.010158610268723</v>
       </c>
       <c r="L16">
-        <v>1.038249826430964</v>
+        <v>1.016294363153637</v>
       </c>
       <c r="M16">
-        <v>1.047108098598152</v>
+        <v>1.021529258656483</v>
       </c>
       <c r="N16">
-        <v>1.014549511948007</v>
+        <v>1.008367776055426</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025561455338156</v>
+        <v>0.986356955430214</v>
       </c>
       <c r="D17">
-        <v>1.027244793041629</v>
+        <v>0.9970594563095067</v>
       </c>
       <c r="E17">
-        <v>1.035100855072164</v>
+        <v>1.003372357514567</v>
       </c>
       <c r="F17">
-        <v>1.044029834093431</v>
+        <v>1.008881887593902</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0322819332228</v>
+        <v>1.041433730820155</v>
       </c>
       <c r="J17">
-        <v>1.031813993908454</v>
+        <v>1.014349703166012</v>
       </c>
       <c r="K17">
-        <v>1.030641432090463</v>
+        <v>1.011119241101277</v>
       </c>
       <c r="L17">
-        <v>1.038469831924735</v>
+        <v>1.017321514336525</v>
       </c>
       <c r="M17">
-        <v>1.047367927074288</v>
+        <v>1.022735956959387</v>
       </c>
       <c r="N17">
-        <v>1.014612509462401</v>
+        <v>1.00867332122042</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025752452469449</v>
+        <v>0.9873240789522019</v>
       </c>
       <c r="D18">
-        <v>1.027406799424464</v>
+        <v>0.9978192792347285</v>
       </c>
       <c r="E18">
-        <v>1.035271754504454</v>
+        <v>1.004169487595282</v>
       </c>
       <c r="F18">
-        <v>1.044223633409862</v>
+        <v>1.009783182046744</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03230421371799</v>
+        <v>1.041623113832661</v>
       </c>
       <c r="J18">
-        <v>1.031923799726972</v>
+        <v>1.014874671188786</v>
       </c>
       <c r="K18">
-        <v>1.030760557520669</v>
+        <v>1.011675761229472</v>
       </c>
       <c r="L18">
-        <v>1.038598195199411</v>
+        <v>1.017916636288982</v>
       </c>
       <c r="M18">
-        <v>1.047519531926498</v>
+        <v>1.023435155081948</v>
       </c>
       <c r="N18">
-        <v>1.01464925072411</v>
+        <v>1.008850250127475</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025817590941017</v>
+        <v>0.9876527164571202</v>
       </c>
       <c r="D19">
-        <v>1.027462057720083</v>
+        <v>0.9980776059369483</v>
       </c>
       <c r="E19">
-        <v>1.035330046626607</v>
+        <v>1.004440499277647</v>
       </c>
       <c r="F19">
-        <v>1.044289735636044</v>
+        <v>1.010089588485027</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032311785418637</v>
+        <v>1.041687266617687</v>
       </c>
       <c r="J19">
-        <v>1.03196124091884</v>
+        <v>1.01505303558144</v>
       </c>
       <c r="K19">
-        <v>1.030801180892806</v>
+        <v>1.011864883020577</v>
       </c>
       <c r="L19">
-        <v>1.038641970123064</v>
+        <v>1.018118887128917</v>
       </c>
       <c r="M19">
-        <v>1.047571233911451</v>
+        <v>1.023672784198917</v>
       </c>
       <c r="N19">
-        <v>1.014661777830758</v>
+        <v>1.008910361766605</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025526329217769</v>
+        <v>0.9861785220566212</v>
       </c>
       <c r="D20">
-        <v>1.027215001888286</v>
+        <v>0.9969193328667714</v>
       </c>
       <c r="E20">
-        <v>1.035069428834039</v>
+        <v>1.003225354578189</v>
       </c>
       <c r="F20">
-        <v>1.043994196465806</v>
+        <v>1.008715665806967</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032277822855081</v>
+        <v>1.041398694297908</v>
       </c>
       <c r="J20">
-        <v>1.031793796080066</v>
+        <v>1.014252835634175</v>
       </c>
       <c r="K20">
-        <v>1.030619522094724</v>
+        <v>1.011016569257</v>
       </c>
       <c r="L20">
-        <v>1.038446223497403</v>
+        <v>1.017211726119397</v>
       </c>
       <c r="M20">
-        <v>1.047340044619256</v>
+        <v>1.022606972656108</v>
       </c>
       <c r="N20">
-        <v>1.014605750848208</v>
+        <v>1.0086406731481</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024580344025936</v>
+        <v>0.9813055234889007</v>
       </c>
       <c r="D21">
-        <v>1.026413076203371</v>
+        <v>0.9931001250526067</v>
       </c>
       <c r="E21">
-        <v>1.034223517828155</v>
+        <v>0.999218689281627</v>
       </c>
       <c r="F21">
-        <v>1.043034880370023</v>
+        <v>1.004184052221362</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032165651971249</v>
+        <v>1.040430862956422</v>
       </c>
       <c r="J21">
-        <v>1.031249439539802</v>
+        <v>1.011606193855082</v>
       </c>
       <c r="K21">
-        <v>1.030029262282122</v>
+        <v>1.00821340747418</v>
       </c>
       <c r="L21">
-        <v>1.037810279884104</v>
+        <v>1.014214878968114</v>
       </c>
       <c r="M21">
-        <v>1.04658903271119</v>
+        <v>1.019086587666873</v>
       </c>
       <c r="N21">
-        <v>1.014423554356234</v>
+        <v>1.007748545307991</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023986290795356</v>
+        <v>0.9781774852665475</v>
       </c>
       <c r="D22">
-        <v>1.025909862068527</v>
+        <v>0.990656134567266</v>
       </c>
       <c r="E22">
-        <v>1.033692729747902</v>
+        <v>0.9966547726160174</v>
       </c>
       <c r="F22">
-        <v>1.042432888488517</v>
+        <v>1.001283069424155</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032093783563331</v>
+        <v>1.039799105089929</v>
       </c>
       <c r="J22">
-        <v>1.030907205346657</v>
+        <v>1.009906296613272</v>
       </c>
       <c r="K22">
-        <v>1.029658403279318</v>
+        <v>1.006414995969829</v>
       </c>
       <c r="L22">
-        <v>1.037410787781024</v>
+        <v>1.012292791678978</v>
       </c>
       <c r="M22">
-        <v>1.046117315821333</v>
+        <v>1.016829151238457</v>
       </c>
       <c r="N22">
-        <v>1.014308966407957</v>
+        <v>1.007175452284731</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024301140351166</v>
+        <v>0.9798419806475024</v>
       </c>
       <c r="D23">
-        <v>1.026176531084787</v>
+        <v>0.991955898156561</v>
       </c>
       <c r="E23">
-        <v>1.033974008509533</v>
+        <v>0.9980183136698521</v>
       </c>
       <c r="F23">
-        <v>1.042751904358082</v>
+        <v>1.00282598053804</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032132009367654</v>
+        <v>1.040136249362456</v>
       </c>
       <c r="J23">
-        <v>1.031088627412664</v>
+        <v>1.010810926802037</v>
       </c>
       <c r="K23">
-        <v>1.029854977454598</v>
+        <v>1.007371862212184</v>
       </c>
       <c r="L23">
-        <v>1.037622532338418</v>
+        <v>1.013315406263515</v>
       </c>
       <c r="M23">
-        <v>1.046367336350167</v>
+        <v>1.018030142514369</v>
       </c>
       <c r="N23">
-        <v>1.014369714686849</v>
+        <v>1.007480441647113</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025542200955018</v>
+        <v>0.9862591691804856</v>
       </c>
       <c r="D24">
-        <v>1.027228462893866</v>
+        <v>0.9969826624904409</v>
       </c>
       <c r="E24">
-        <v>1.035083628636227</v>
+        <v>1.003291793409982</v>
       </c>
       <c r="F24">
-        <v>1.044010299180144</v>
+        <v>1.008790791070922</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032279680615242</v>
+        <v>1.041414533526714</v>
       </c>
       <c r="J24">
-        <v>1.031802922604265</v>
+        <v>1.014296617604512</v>
       </c>
       <c r="K24">
-        <v>1.030629422192842</v>
+        <v>1.011062973968198</v>
       </c>
       <c r="L24">
-        <v>1.038456891012919</v>
+        <v>1.017261347025059</v>
       </c>
       <c r="M24">
-        <v>1.047352643342212</v>
+        <v>1.022665269454188</v>
       </c>
       <c r="N24">
-        <v>1.01460880478784</v>
+        <v>1.008655429388792</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026985484170102</v>
+        <v>0.9934434962376613</v>
       </c>
       <c r="D25">
-        <v>1.028453411296939</v>
+        <v>1.0026405549204</v>
       </c>
       <c r="E25">
-        <v>1.036375874276728</v>
+        <v>1.009227635827478</v>
       </c>
       <c r="F25">
-        <v>1.045475614438812</v>
+        <v>1.015500311810438</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032445179107892</v>
+        <v>1.042799964815072</v>
       </c>
       <c r="J25">
-        <v>1.032631883719522</v>
+        <v>1.018193545652802</v>
       </c>
       <c r="K25">
-        <v>1.031529209236345</v>
+        <v>1.01519801750652</v>
       </c>
       <c r="L25">
-        <v>1.039426594850307</v>
+        <v>1.02168437378861</v>
       </c>
       <c r="M25">
-        <v>1.048498043291606</v>
+        <v>1.027862677957228</v>
       </c>
       <c r="N25">
-        <v>1.014886092050284</v>
+        <v>1.009968560741322</v>
       </c>
     </row>
   </sheetData>
